--- a/sinkhole_data/싱크홀 전체 데이터.xlsx
+++ b/sinkhole_data/싱크홀 전체 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7BB3E-EAE7-4EBE-8A90-C2F7D261AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D425F52-56EC-4482-AF38-BEE243E0A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{4A3CFA42-F891-49D7-895E-74D950EE200F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="276">
   <si>
     <t>width</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>하수박스 손상부 복구 및 토사되메우기 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 기장군 일광면 원리 748-2번지 일원(부산~울산고속도로 원리 2교 하부)</t>
   </si>
   <si>
     <t>부산광역시 기장군 청강리 795-9번지 일원</t>
@@ -1331,703 +1328,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>129.22886459074516</t>
-  </si>
-  <si>
-    <t>35.30989160644196</t>
-  </si>
-  <si>
-    <t>129.20257910184978</t>
-  </si>
-  <si>
-    <t>35.316753341797316</t>
-  </si>
-  <si>
-    <t>129.0742012718606</t>
-  </si>
-  <si>
-    <t>35.07381156152815</t>
-  </si>
-  <si>
-    <t>129.04545474023968</t>
-  </si>
-  <si>
-    <t>35.09556770600766</t>
-  </si>
-  <si>
-    <t>129.06626920074524</t>
-  </si>
-  <si>
-    <t>35.07484818740832</t>
-  </si>
-  <si>
-    <t>129.06303219496127</t>
-  </si>
-  <si>
-    <t>35.086906921059516</t>
-  </si>
-  <si>
-    <t>129.17503479475982</t>
-  </si>
-  <si>
-    <t>35.161582130821806</t>
-  </si>
-  <si>
-    <t>129.15048171132258</t>
-  </si>
-  <si>
-    <t>35.16011022842836</t>
-  </si>
-  <si>
-    <t>129.03187141877112</t>
-  </si>
-  <si>
-    <t>35.11508131713274</t>
-  </si>
-  <si>
-    <t>129.07278565009398</t>
-  </si>
-  <si>
-    <t>35.18193034054444</t>
-  </si>
-  <si>
-    <t>129.07269144275887</t>
-  </si>
-  <si>
-    <t>35.18945660659343</t>
-  </si>
-  <si>
-    <t>129.09483040643937</t>
-  </si>
-  <si>
-    <t>35.17398122556625</t>
-  </si>
-  <si>
-    <t>129.07742849752438</t>
-  </si>
-  <si>
-    <t>35.18020164725566</t>
-  </si>
-  <si>
-    <t>129.07142800546345</t>
-  </si>
-  <si>
-    <t>35.189415151149895</t>
-  </si>
-  <si>
-    <t>129.08544596781718</t>
-  </si>
-  <si>
-    <t>35.17653128562243</t>
-  </si>
-  <si>
-    <t>129.08095996829695</t>
-  </si>
-  <si>
-    <t>129.08510220051699</t>
-  </si>
-  <si>
-    <t>35.19443411875518</t>
-  </si>
-  <si>
-    <t>129.0831250597547</t>
-  </si>
-  <si>
-    <t>35.166009692010185</t>
-  </si>
-  <si>
-    <t>129.06347954265894</t>
-  </si>
-  <si>
-    <t>35.19241657709408</t>
-  </si>
-  <si>
-    <t>129.09051942353395</t>
-  </si>
-  <si>
-    <t>35.174497300042134</t>
-  </si>
-  <si>
-    <t>129.09422460966178</t>
-  </si>
-  <si>
-    <t>35.17346903614234</t>
-  </si>
-  <si>
-    <t>129.12400703220672</t>
-  </si>
-  <si>
-    <t>35.15602667411772</t>
-  </si>
-  <si>
-    <t>129.01580576015434</t>
-  </si>
-  <si>
-    <t>35.10935682772483</t>
-  </si>
-  <si>
-    <t>129.02414954741218</t>
-  </si>
-  <si>
-    <t>35.08932877617539</t>
-  </si>
-  <si>
-    <t>129.0194022627621</t>
-  </si>
-  <si>
-    <t>35.117777009913276</t>
-  </si>
-  <si>
-    <t>129.01113363182677</t>
-  </si>
-  <si>
-    <t>35.11915815811726</t>
-  </si>
-  <si>
-    <t>129.01664679076018</t>
-  </si>
-  <si>
-    <t>35.09853771750497</t>
-  </si>
-  <si>
-    <t>129.02416630695117</t>
-  </si>
-  <si>
-    <t>35.09355501924064</t>
-  </si>
-  <si>
-    <t>129.02247846884003</t>
-  </si>
-  <si>
-    <t>35.09535851501092</t>
-  </si>
-  <si>
-    <t>128.98142162587914</t>
-  </si>
-  <si>
-    <t>35.07612946661735</t>
-  </si>
-  <si>
-    <t>128.97699374155388</t>
-  </si>
-  <si>
-    <t>35.07843670217955</t>
-  </si>
-  <si>
-    <t>128.96270371628034</t>
-  </si>
-  <si>
-    <t>35.09466501804948</t>
-  </si>
-  <si>
-    <t>128.9772537470657</t>
-  </si>
-  <si>
-    <t>35.09783501432494</t>
-  </si>
-  <si>
-    <t>128.97417088856866</t>
-  </si>
-  <si>
-    <t>35.060918514508835</t>
-  </si>
-  <si>
-    <t>129.00367069355036</t>
-  </si>
-  <si>
-    <t>35.10552981219088</t>
-  </si>
-  <si>
-    <t>128.9694177180082</t>
-  </si>
-  <si>
-    <t>35.05604826299614</t>
-  </si>
-  <si>
-    <t>128.97473355077483</t>
-  </si>
-  <si>
-    <t>35.08608857937037</t>
-  </si>
-  <si>
-    <t>129.00285686064416</t>
-  </si>
-  <si>
-    <t>35.08840280445306</t>
-  </si>
-  <si>
-    <t>128.99975652700442</t>
-  </si>
-  <si>
-    <t>35.10376506849344</t>
-  </si>
-  <si>
-    <t>128.95311421121932</t>
-  </si>
-  <si>
-    <t>35.07785048744249</t>
-  </si>
-  <si>
-    <t>129.00244909571722</t>
-  </si>
-  <si>
-    <t>35.10535174406917</t>
-  </si>
-  <si>
-    <t>128.9938699016526</t>
-  </si>
-  <si>
-    <t>35.10069891268454</t>
-  </si>
-  <si>
-    <t>128.97773340631193</t>
-  </si>
-  <si>
-    <t>35.14353516338058</t>
-  </si>
-  <si>
-    <t>128.9841412387869</t>
-  </si>
-  <si>
-    <t>35.15892160902337</t>
-  </si>
-  <si>
-    <t>128.96711084512793</t>
-  </si>
-  <si>
-    <t>35.15938867341167</t>
-  </si>
-  <si>
-    <t>128.9827540903314</t>
-  </si>
-  <si>
-    <t>35.16190018556421</t>
-  </si>
-  <si>
-    <t>128.98987322285993</t>
-  </si>
-  <si>
-    <t>35.18699824410049</t>
-  </si>
-  <si>
-    <t>128.9933769677475</t>
-  </si>
-  <si>
-    <t>35.179442858520346</t>
-  </si>
-  <si>
-    <t>128.98347475928222</t>
-  </si>
-  <si>
-    <t>35.15587753768647</t>
-  </si>
-  <si>
-    <t>128.98341535589478</t>
-  </si>
-  <si>
-    <t>128.98458381970121</t>
-  </si>
-  <si>
-    <t>35.189770560783224</t>
-  </si>
-  <si>
-    <t>35.12893774394139</t>
-  </si>
-  <si>
-    <t>128.98307743353254</t>
-  </si>
-  <si>
-    <t>128.98198405585077</t>
-  </si>
-  <si>
-    <t>35.15187367939472</t>
-  </si>
-  <si>
-    <t>128.98250174010815</t>
-  </si>
-  <si>
-    <t>128.9815752228948</t>
-  </si>
-  <si>
-    <t>35.15130361514558</t>
-  </si>
-  <si>
-    <t>128.98122906525407</t>
-  </si>
-  <si>
-    <t>35.14924558049678</t>
-  </si>
-  <si>
-    <t>128.98175682590036</t>
-  </si>
-  <si>
-    <t>35.14929101728159</t>
-  </si>
-  <si>
-    <t>128.98263215057673</t>
-  </si>
-  <si>
-    <t>35.15325989713577</t>
-  </si>
-  <si>
-    <t>129.00914868378462</t>
-  </si>
-  <si>
-    <t>129.02111481401124</t>
-  </si>
-  <si>
-    <t>35.218039465330754</t>
-  </si>
-  <si>
-    <t>129.01988706132587</t>
-  </si>
-  <si>
-    <t>35.23717358091761</t>
-  </si>
-  <si>
-    <t>129.01229120422207</t>
-  </si>
-  <si>
-    <t>35.19690099748251</t>
-  </si>
-  <si>
-    <t>128.99939547722968</t>
-  </si>
-  <si>
-    <t>35.202882161353315</t>
-  </si>
-  <si>
-    <t>128.99436294793415</t>
-  </si>
-  <si>
-    <t>35.19643171029452</t>
-  </si>
-  <si>
-    <t>129.01216493566344</t>
-  </si>
-  <si>
-    <t>35.19667780494822</t>
-  </si>
-  <si>
-    <t>128.99467478838383</t>
-  </si>
-  <si>
-    <t>35.198409144593754</t>
-  </si>
-  <si>
-    <t>129.0364616268518</t>
-  </si>
-  <si>
-    <t>35.21344760859162</t>
-  </si>
-  <si>
-    <t>129.04519933578837</t>
-  </si>
-  <si>
-    <t>35.214210432592246</t>
-  </si>
-  <si>
-    <t>128.99499189612308</t>
-  </si>
-  <si>
-    <t>35.19790827572872</t>
-  </si>
-  <si>
-    <t>129.00611413719855</t>
-  </si>
-  <si>
-    <t>35.19482270090031</t>
-  </si>
-  <si>
-    <t>129.02172912443547</t>
-  </si>
-  <si>
-    <t>35.210044908256314</t>
-  </si>
-  <si>
-    <t>129.01829602424084</t>
-  </si>
-  <si>
-    <t>35.26603718195382</t>
-  </si>
-  <si>
-    <t>129.00764569587005</t>
-  </si>
-  <si>
-    <t>35.19861825772489</t>
-  </si>
-  <si>
-    <t>129.06438674466392</t>
-  </si>
-  <si>
-    <t>35.15797683457219</t>
-  </si>
-  <si>
-    <t>129.05095956165428</t>
-  </si>
-  <si>
-    <t>35.163810210310366</t>
-  </si>
-  <si>
-    <t>129.05973581483187</t>
-  </si>
-  <si>
-    <t>35.14411503399163</t>
-  </si>
-  <si>
-    <t>129.07156276779884</t>
-  </si>
-  <si>
-    <t>35.15406942463116</t>
-  </si>
-  <si>
-    <t>129.01704224138985</t>
-  </si>
-  <si>
-    <t>35.14659980526605</t>
-  </si>
-  <si>
-    <t>35.15790890245411</t>
-  </si>
-  <si>
-    <t>129.03272869037883</t>
-  </si>
-  <si>
-    <t>129.0301886029585</t>
-  </si>
-  <si>
-    <t>129.0581344832061</t>
-  </si>
-  <si>
-    <t>35.15720011178423</t>
-  </si>
-  <si>
-    <t>129.0621594927803</t>
-  </si>
-  <si>
-    <t>35.157987745637946</t>
-  </si>
-  <si>
-    <t>129.09728105194299</t>
-  </si>
-  <si>
-    <t>35.19887365541534</t>
-  </si>
-  <si>
-    <t>129.05884025162234</t>
-  </si>
-  <si>
-    <t>129.06283647989824</t>
-  </si>
-  <si>
-    <t>35.211261694683714</t>
-  </si>
-  <si>
-    <t>129.10180725050952</t>
-  </si>
-  <si>
-    <t>35.20708570912414</t>
-  </si>
-  <si>
-    <t>129.07158810532485</t>
-  </si>
-  <si>
-    <t>35.21386973694242</t>
-  </si>
-  <si>
-    <t>129.08307855089683</t>
-  </si>
-  <si>
-    <t>35.204174370004985</t>
-  </si>
-  <si>
-    <t>129.06976379817374</t>
-  </si>
-  <si>
-    <t>35.205592315579885</t>
-  </si>
-  <si>
-    <t>129.07938843871574</t>
-  </si>
-  <si>
-    <t>35.21015839134813</t>
-  </si>
-  <si>
-    <t>129.0616007549547</t>
-  </si>
-  <si>
-    <t>35.195827927563904</t>
-  </si>
-  <si>
-    <t>129.08202346773464</t>
-  </si>
-  <si>
-    <t>35.20757184271996</t>
-  </si>
-  <si>
-    <t>129.09785026458988</t>
-  </si>
-  <si>
-    <t>129.07658995201476</t>
-  </si>
-  <si>
-    <t>35.20461028368768</t>
-  </si>
-  <si>
-    <t>129.05329181771327</t>
-  </si>
-  <si>
-    <t>35.19806885262174</t>
-  </si>
-  <si>
-    <t>129.0438761374656</t>
-  </si>
-  <si>
-    <t>35.14561828677971</t>
-  </si>
-  <si>
-    <t>129.0646992750099</t>
-  </si>
-  <si>
-    <t>35.13951570074141</t>
-  </si>
-  <si>
-    <t>129.05103056274365</t>
-  </si>
-  <si>
-    <t>129.04734893218847</t>
-  </si>
-  <si>
-    <t>35.12044409048339</t>
-  </si>
-  <si>
-    <t>129.0835203334474</t>
-  </si>
-  <si>
-    <t>35.12600043846269</t>
-  </si>
-  <si>
-    <t>129.08723968146364</t>
-  </si>
-  <si>
-    <t>35.120880902484096</t>
-  </si>
-  <si>
-    <t>129.0878401945638</t>
-  </si>
-  <si>
-    <t>35.150410567907066</t>
-  </si>
-  <si>
-    <t>129.07292134156938</t>
-  </si>
-  <si>
-    <t>35.136689813216975</t>
-  </si>
-  <si>
-    <t>129.06772225123072</t>
-  </si>
-  <si>
-    <t>129.07004050320052</t>
-  </si>
-  <si>
-    <t>35.13426087829198</t>
-  </si>
-  <si>
-    <t>129.0999334892756</t>
-  </si>
-  <si>
-    <t>35.123166779958645</t>
-  </si>
-  <si>
-    <t>129.09714119461304</t>
-  </si>
-  <si>
-    <t>35.14643798459071</t>
-  </si>
-  <si>
-    <t>129.1118912258135</t>
-  </si>
-  <si>
-    <t>35.11985895175868</t>
-  </si>
-  <si>
-    <t>129.0936063461606</t>
-  </si>
-  <si>
-    <t>35.110371656197366</t>
-  </si>
-  <si>
-    <t>129.0854198902293</t>
-  </si>
-  <si>
-    <t>35.233033911326196</t>
-  </si>
-  <si>
-    <t>129.0877259045814</t>
-  </si>
-  <si>
-    <t>129.0989661502369</t>
-  </si>
-  <si>
-    <t>129.08390883138443</t>
-  </si>
-  <si>
-    <t>35.242657163767284</t>
-  </si>
-  <si>
-    <t>129.0957655297715</t>
-  </si>
-  <si>
-    <t>35.222771325118806</t>
-  </si>
-  <si>
-    <t>129.06807617989242</t>
-  </si>
-  <si>
-    <t>35.240766095038296</t>
-  </si>
-  <si>
-    <t>35.216293508760366</t>
-  </si>
-  <si>
-    <t>129.07868642696747</t>
-  </si>
-  <si>
-    <t>35.228698105990944</t>
-  </si>
-  <si>
-    <t>128.90340141789775</t>
-  </si>
-  <si>
-    <t>35.092114147970946</t>
-  </si>
-  <si>
-    <t>128.8539111556323</t>
-  </si>
-  <si>
-    <t>35.08938450271748</t>
-  </si>
-  <si>
-    <t>128.84918088121637</t>
-  </si>
-  <si>
-    <t>35.12363955071382</t>
-  </si>
-  <si>
-    <t>128.8869560116721</t>
-  </si>
-  <si>
-    <t>35.143532357094124</t>
-  </si>
-  <si>
-    <t>-</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기장군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일광면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 748-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>울산고속도로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,7 +1544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,15 +1612,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2156,7 +1656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2197,12 +1697,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2539,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C951D-4BC8-4F67-9022-B869EB440D97}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -2559,15 +2053,15 @@
     <col min="11" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2579,21 +2073,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>43447</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -2608,21 +2096,15 @@
         <v>1.7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>44036</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+      <c r="B3" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -2639,14 +2121,8 @@
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>44037</v>
       </c>
@@ -2668,22 +2144,16 @@
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>43643</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -2695,21 +2165,15 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>43957</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -2724,24 +2188,18 @@
         <v>1.8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>45504</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -2753,21 +2211,15 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>45545</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -2782,21 +2234,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>43126</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -2811,21 +2257,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>43166</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -2840,79 +2280,61 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>43221</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>43636</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>43166</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -2927,21 +2349,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>44042</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -2956,24 +2372,18 @@
         <v>1.5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>43178</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2985,24 +2395,18 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>43211</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -3014,24 +2418,18 @@
         <v>0.25</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>43270</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -3043,24 +2441,18 @@
         <v>0.8</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>43297</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -3072,24 +2464,18 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>43301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -3101,53 +2487,41 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>43333</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
         <v>43516</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="11">
         <v>2.5</v>
@@ -3159,21 +2533,15 @@
         <v>3</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>43702</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -3188,21 +2556,15 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>44109</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -3217,21 +2579,15 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>44263</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -3246,24 +2602,18 @@
         <v>1.5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>44322</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4">
         <v>0.8</v>
@@ -3275,21 +2625,15 @@
         <v>1.3</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>44361</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -3304,21 +2648,15 @@
         <v>2.4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>44891</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -3333,21 +2671,15 @@
         <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>45419</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -3362,24 +2694,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>43151</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>1.5</v>
@@ -3391,21 +2717,15 @@
         <v>0.7</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>43300</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
@@ -3420,21 +2740,15 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>43691</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -3449,21 +2763,15 @@
         <v>1.7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>44008</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -3478,21 +2786,15 @@
         <v>0.7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>44361</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -3507,21 +2809,15 @@
         <v>1.4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>44515</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -3536,21 +2832,15 @@
         <v>1.5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>44565</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -3565,24 +2855,18 @@
         <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>45441</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -3594,21 +2878,15 @@
         <v>0.7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>45499</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -3623,24 +2901,18 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>43167</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -3652,21 +2924,15 @@
         <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>43187</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>5</v>
@@ -3681,24 +2947,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>43194</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -3710,21 +2970,15 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>43282</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -3739,21 +2993,15 @@
         <v>1.5</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>43412</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>5</v>
@@ -3768,21 +3016,15 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>43545</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>5</v>
@@ -3797,24 +3039,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>43596</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D44" s="4">
         <v>1.2</v>
@@ -3826,24 +3062,18 @@
         <v>1.5</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43903</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -3855,24 +3085,18 @@
         <v>0.9</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44270</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D46" s="4">
         <v>0.5</v>
@@ -3884,21 +3108,15 @@
         <v>1.2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>44308</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -3913,21 +3131,15 @@
         <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>44364</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
@@ -3942,21 +3154,15 @@
         <v>1.2</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>44432</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
@@ -3971,24 +3177,18 @@
         <v>5</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>44746</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4">
         <v>0.5</v>
@@ -4000,24 +3200,18 @@
         <v>1.9</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>44832</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -4029,24 +3223,18 @@
         <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>45027</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="4">
         <v>0.8</v>
@@ -4058,24 +3246,18 @@
         <v>0.4</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>45407</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4">
         <v>6</v>
@@ -4087,21 +3269,15 @@
         <v>0.7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>45749</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>5</v>
@@ -4116,21 +3292,15 @@
         <v>0.5</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I54" s="11">
-        <v>35.155238674971002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>43250</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -4145,21 +3315,15 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>43687</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -4174,24 +3338,18 @@
         <v>0.15</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="11">
-        <v>128.97818104454899</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>43908</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4">
         <v>50</v>
@@ -4203,21 +3361,15 @@
         <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="I57" s="11">
-        <v>35.150810416477903</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>43949</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>5</v>
@@ -4232,24 +3384,18 @@
         <v>2</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="I58" s="11">
-        <v>35.150810416477903</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>44357</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" s="4">
         <v>1.5</v>
@@ -4261,21 +3407,15 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>44432</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -4290,21 +3430,15 @@
         <v>3</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="I60" s="11">
-        <v>35.151955324611102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>44931</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
@@ -4319,24 +3453,18 @@
         <v>3</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>45009</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -4348,21 +3476,15 @@
         <v>0.5</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>45150</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -4377,21 +3499,15 @@
         <v>1.3</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>45168</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>5</v>
@@ -4406,24 +3522,18 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>45412</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="4">
         <v>1.5</v>
@@ -4435,21 +3545,15 @@
         <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>45417</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -4464,21 +3568,15 @@
         <v>1.5</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="I66" s="11">
-        <v>35.2230779687577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>45497</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -4493,21 +3591,15 @@
         <v>3</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>45524</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -4522,21 +3614,15 @@
         <v>3.5</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>45525</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>5</v>
@@ -4551,21 +3637,15 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>45556</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>5</v>
@@ -4580,21 +3660,15 @@
         <v>5</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>45556</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>5</v>
@@ -4609,24 +3683,18 @@
         <v>5</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="12">
         <v>45760</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D72" s="11">
         <v>5</v>
@@ -4638,21 +3706,15 @@
         <v>4.5</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="9">
         <v>45761</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11">
@@ -4665,24 +3727,18 @@
         <v>2</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="I73" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>43304</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4">
         <v>5</v>
@@ -4694,21 +3750,15 @@
         <v>1.7</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>43314</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -4723,24 +3773,18 @@
         <v>0.3</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="12">
         <v>43610</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="11">
         <v>0.8</v>
@@ -4752,21 +3796,15 @@
         <v>1</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>43653</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -4781,21 +3819,15 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>43960</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>5</v>
@@ -4810,24 +3842,18 @@
         <v>1.5</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="I78" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>44334</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="4">
         <v>1.5</v>
@@ -4839,50 +3865,38 @@
         <v>1</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="I79" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>44432</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>44475</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -4897,24 +3911,18 @@
         <v>1</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>44581</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="4">
         <v>0.5</v>
@@ -4926,21 +3934,15 @@
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>45126</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -4955,21 +3957,15 @@
         <v>3.5</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>45148</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -4984,24 +3980,18 @@
         <v>1</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>45148</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="4">
         <v>1.2</v>
@@ -5013,21 +4003,15 @@
         <v>0.9</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>45162</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -5042,21 +4026,15 @@
         <v>0.2</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="I86" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>45319</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -5071,24 +4049,18 @@
         <v>2.1</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>45401</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" s="4">
         <v>0.8</v>
@@ -5100,24 +4072,18 @@
         <v>1.3</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H88" s="11">
-        <v>129.05513475481399</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>43188</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="4">
         <v>2</v>
@@ -5129,24 +4095,18 @@
         <v>1.5</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="I89" s="11">
-        <v>35.153537902709502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="12">
         <v>43193</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="11">
         <v>0.5</v>
@@ -5158,24 +4118,18 @@
         <v>0.6</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="I90" s="11">
-        <v>35.153319169412001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>43259</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" s="4">
         <v>1.6</v>
@@ -5187,24 +4141,18 @@
         <v>1.5</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="I91" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>43318</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -5216,24 +4164,18 @@
         <v>1</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="I92" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="12">
         <v>43531</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="11">
         <v>0.5</v>
@@ -5245,21 +4187,15 @@
         <v>3</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>44018</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -5274,21 +4210,15 @@
         <v>0.8</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="I94" s="11">
-        <v>35.204327762179503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>44023</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -5303,21 +4233,15 @@
         <v>0.5</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="I95" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>44036</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -5332,24 +4256,18 @@
         <v>0.3</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I96" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>44041</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" s="4">
         <v>0.8</v>
@@ -5361,24 +4279,18 @@
         <v>2.5</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="I97" s="15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>44806</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
@@ -5390,24 +4302,18 @@
         <v>1.5</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>45065</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -5419,24 +4325,18 @@
         <v>0.3</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="I99" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>45088</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D100" s="4">
         <v>0.3</v>
@@ -5448,24 +4348,18 @@
         <v>2</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="I100" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>45169</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -5477,21 +4371,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="I101" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="7">
         <v>43201</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>5</v>
@@ -5506,24 +4394,18 @@
         <v>1.5</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="I102" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="7">
         <v>43250</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D103" s="8">
         <v>1</v>
@@ -5535,21 +4417,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="I103" s="11">
-        <v>35.195394364963299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="32" x14ac:dyDescent="0.45">
       <c r="A104" s="7">
         <v>43292</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>5</v>
@@ -5564,21 +4440,15 @@
         <v>3.6</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="7">
         <v>43558</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>4</v>
@@ -5593,21 +4463,15 @@
         <v>1.5</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="7">
         <v>43566</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>4</v>
@@ -5622,21 +4486,15 @@
         <v>1.5</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="7">
         <v>43578</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>4</v>
@@ -5651,21 +4509,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="7">
         <v>43598</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>4</v>
@@ -5680,21 +4532,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="7">
         <v>43638</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>4</v>
@@ -5709,21 +4555,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="I109" s="11">
-        <v>35.140414775153502</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="7">
         <v>44019</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>5</v>
@@ -5738,24 +4578,18 @@
         <v>1.5</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="7">
         <v>44055</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" s="8">
         <v>0.8</v>
@@ -5767,21 +4601,15 @@
         <v>2</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="7">
         <v>44414</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>5</v>
@@ -5796,21 +4624,15 @@
         <v>0.8</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="7">
         <v>44753</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>5</v>
@@ -5825,24 +4647,18 @@
         <v>1.33</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="7">
         <v>45287</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" s="8">
         <v>0.6</v>
@@ -5854,24 +4670,18 @@
         <v>2.6</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="7">
         <v>45421</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" s="8">
         <v>1</v>
@@ -5883,21 +4693,15 @@
         <v>0.2</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="I115" s="11">
-        <v>35.138454833764598</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="64" x14ac:dyDescent="0.45">
       <c r="A116" s="7">
         <v>45476</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>5</v>
@@ -5912,24 +4716,18 @@
         <v>2</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="I116" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>44035</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -5941,24 +4739,18 @@
         <v>0.7</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>44035</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -5970,21 +4762,15 @@
         <v>0.7</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="I118" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>44035</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -5999,21 +4785,15 @@
         <v>0.5</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>45695</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>5</v>
@@ -6028,21 +4808,15 @@
         <v>0.1</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>43209</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -6057,21 +4831,15 @@
         <v>0.5</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="I121" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>43307</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>5</v>
@@ -6086,21 +4854,15 @@
         <v>0.5</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>43657</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -6115,24 +4877,18 @@
         <v>0.6</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="I123" s="11">
-        <v>35.280123973665297</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>43971</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
@@ -6144,24 +4900,18 @@
         <v>1.5</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="I124" s="11">
-        <v>35.219552825849703</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>44004</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D125" s="4">
         <v>0.5</v>
@@ -6173,24 +4923,18 @@
         <v>1.5</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="I125" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>44023</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -6202,21 +4946,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="I126" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>44027</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -6231,21 +4969,15 @@
         <v>1.5</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="I127" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>44040</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -6260,53 +4992,41 @@
         <v>1</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H128" s="11">
-        <v>129.11536437880801</v>
-      </c>
-      <c r="I128" s="15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>44329</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="4">
-        <v>1</v>
-      </c>
-      <c r="E129" s="4">
-        <v>1</v>
-      </c>
-      <c r="F129" s="4">
-        <v>1</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="I129" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>45124</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130" s="4">
         <v>3.3</v>
@@ -6318,24 +5038,18 @@
         <v>0.4</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>45365</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D131" s="4">
         <v>0.9</v>
@@ -6347,24 +5061,18 @@
         <v>1.5</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="12">
         <v>43301</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D132" s="11">
         <v>0.8</v>
@@ -6376,21 +5084,15 @@
         <v>2</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="I132" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>43439</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>5</v>
@@ -6405,24 +5107,18 @@
         <v>1</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="I133" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>43681</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D134" s="4">
         <v>0.8</v>
@@ -6434,21 +5130,15 @@
         <v>0.8</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="I134" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="25" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>44052</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -6463,42 +5153,38 @@
         <v>1</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>44062</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="4">
-        <v>1</v>
-      </c>
-      <c r="E136" s="4">
-        <v>1</v>
-      </c>
-      <c r="F136" s="4">
-        <v>1</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>44071</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>4</v>
@@ -6513,17 +5199,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>44426</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>4</v>
@@ -6538,20 +5222,18 @@
         <v>1.5</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>44737</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" s="4">
         <v>1</v>
@@ -6563,20 +5245,18 @@
         <v>1.5</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>45188</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D140" s="4">
         <v>0.5</v>
@@ -6588,17 +5268,15 @@
         <v>3</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="7">
         <v>43577</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>5</v>
@@ -6613,20 +5291,18 @@
         <v>1.4</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="7">
         <v>43890</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D142" s="8">
         <v>8</v>
@@ -6638,20 +5314,18 @@
         <v>0.2</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="7">
         <v>43985</v>
       </c>
       <c r="B143" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D143" s="8">
         <v>40</v>
@@ -6663,17 +5337,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="7">
         <v>45139</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>4</v>
@@ -6688,17 +5360,15 @@
         <v>2</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="9">
         <v>45790</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>5</v>
@@ -6713,10 +5383,8 @@
         <v>3</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A141:G145">
